--- a/data/trans_orig/P41C_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P41C_2023-Edad-trans_orig.xlsx
@@ -1051,19 +1051,19 @@
         <v>144849</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>132959</v>
+        <v>130944</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>149820</v>
+        <v>149775</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.959280912621295</v>
+        <v>0.9592809126212952</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.88053981314277</v>
+        <v>0.8671968557774833</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9922049940581995</v>
+        <v>0.9919102689300754</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>149</v>
@@ -1072,19 +1072,19 @@
         <v>155136</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>148465</v>
+        <v>147851</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>159374</v>
+        <v>159328</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.952526064272459</v>
+        <v>0.9525260642724592</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9115678450835943</v>
+        <v>0.9077967668523343</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9785448070899089</v>
+        <v>0.9782650824691819</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>239</v>
@@ -1093,19 +1093,19 @@
         <v>299985</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>285260</v>
+        <v>286666</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>306653</v>
+        <v>306780</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9557757503686886</v>
+        <v>0.9557757503686888</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9088618124776697</v>
+        <v>0.9133407538276549</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9770208705674994</v>
+        <v>0.9774254725098057</v>
       </c>
     </row>
     <row r="11">
@@ -1172,16 +1172,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6345</v>
+        <v>6161</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.008090428361279961</v>
+        <v>0.008090428361279963</v>
       </c>
       <c r="H12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04202379802678232</v>
+        <v>0.04080065776674544</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4989</v>
+        <v>4407</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.005432574141379987</v>
+        <v>0.005432574141379989</v>
       </c>
       <c r="O12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03062983720561877</v>
+        <v>0.0270595800716719</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -1214,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>7113</v>
+        <v>7289</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.006711239695093307</v>
+        <v>0.006711239695093308</v>
       </c>
       <c r="V12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02266233288492756</v>
+        <v>0.02322397069920403</v>
       </c>
     </row>
     <row r="13">
@@ -1256,16 +1256,16 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6053</v>
+        <v>6342</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.01078129826755904</v>
+        <v>0.01078129826755905</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03716237246608872</v>
+        <v>0.03893716581373535</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -1277,16 +1277,16 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6261</v>
+        <v>6322</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.005594529702217767</v>
+        <v>0.005594529702217768</v>
       </c>
       <c r="V13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01994797435182795</v>
+        <v>0.02014184254028567</v>
       </c>
     </row>
     <row r="14">
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17746</v>
+        <v>18100</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03262865901742484</v>
+        <v>0.03262865901742485</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1175248169890832</v>
+        <v>0.1198730996367082</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -1324,19 +1324,19 @@
         <v>5091</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1730</v>
+        <v>1911</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10986</v>
+        <v>12070</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.03126006331860197</v>
+        <v>0.03126006331860198</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01062512534047525</v>
+        <v>0.01173238631812494</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06745613761880741</v>
+        <v>0.07410999298202411</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -1345,19 +1345,19 @@
         <v>10018</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4356</v>
+        <v>4380</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24252</v>
+        <v>23219</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.03191848023400032</v>
+        <v>0.03191848023400033</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01387794293407856</v>
+        <v>0.01395471141904482</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07726972328654763</v>
+        <v>0.07397810705836744</v>
       </c>
     </row>
     <row r="15">
@@ -1449,19 +1449,19 @@
         <v>209484</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>201069</v>
+        <v>202006</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>214822</v>
+        <v>214929</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.9496193633310916</v>
+        <v>0.9496193633310915</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9114705089993983</v>
+        <v>0.9157193797420781</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9738159139204308</v>
+        <v>0.9743029308940868</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>328</v>
@@ -1470,19 +1470,19 @@
         <v>234414</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>227051</v>
+        <v>226973</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>239431</v>
+        <v>239146</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.947644570066195</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9178769228865572</v>
+        <v>0.9175630947944364</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9679252866626979</v>
+        <v>0.9667718198431443</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>515</v>
@@ -1491,19 +1491,19 @@
         <v>443898</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>434566</v>
+        <v>433730</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>452442</v>
+        <v>452135</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9485754874073168</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9286328678259687</v>
+        <v>0.9268472650502297</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9668328509878896</v>
+        <v>0.9661766288138717</v>
       </c>
     </row>
     <row r="17">
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02596888882881983</v>
+        <v>0.02597048919682297</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4128</v>
+        <v>3650</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.00294242414141495</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01668587639952235</v>
+        <v>0.01475589732399618</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6553</v>
+        <v>6018</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.003978543099965086</v>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01400370855122677</v>
+        <v>0.01285957425142776</v>
       </c>
     </row>
     <row r="18">
@@ -1591,19 +1591,19 @@
         <v>4469</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11448</v>
+        <v>10314</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02025930119731553</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.005340087630813466</v>
+        <v>0.005330991561874831</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05189664291764362</v>
+        <v>0.0467540131155554</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>9</v>
@@ -1612,19 +1612,19 @@
         <v>7190</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3245</v>
+        <v>3600</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>13042</v>
+        <v>13001</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02906756933469282</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01312016590800577</v>
+        <v>0.01455262490091033</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05272453555953886</v>
+        <v>0.05255817673925357</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>13</v>
@@ -1633,19 +1633,19 @@
         <v>11659</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>6297</v>
+        <v>5885</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>19088</v>
+        <v>18770</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02491535264442316</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0134567325479108</v>
+        <v>0.01257673172287454</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04079049382914327</v>
+        <v>0.04011103147035259</v>
       </c>
     </row>
     <row r="19">
@@ -1665,16 +1665,16 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6330</v>
+        <v>6467</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.005722031004429386</v>
+        <v>0.005722031004429385</v>
       </c>
       <c r="H19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02869350547170026</v>
+        <v>0.0293160491413323</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6363</v>
+        <v>6266</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.002697364824534804</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01359755431124442</v>
+        <v>0.01339051034680135</v>
       </c>
     </row>
     <row r="20">
@@ -1725,19 +1725,19 @@
         <v>4248</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10844</v>
+        <v>10342</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01925891854053704</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005292079193663354</v>
+        <v>0.00527090115721788</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04915948110996686</v>
+        <v>0.04688336309486648</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -1746,19 +1746,19 @@
         <v>5033</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2024</v>
+        <v>2140</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9562</v>
+        <v>10212</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02034543645769728</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.008181373094632113</v>
+        <v>0.008651179404828605</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03865667195760202</v>
+        <v>0.04128397215067914</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>11</v>
@@ -1767,19 +1767,19 @@
         <v>9281</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4447</v>
+        <v>4817</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>16030</v>
+        <v>16926</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01983325202376007</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.009502912080380366</v>
+        <v>0.01029348261568259</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03425577197017558</v>
+        <v>0.03616864325692044</v>
       </c>
     </row>
     <row r="21">
@@ -1871,19 +1871,19 @@
         <v>219815</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>211212</v>
+        <v>210834</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>225390</v>
+        <v>225625</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9511338836659818</v>
+        <v>0.9511338836659819</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9139092715539313</v>
+        <v>0.9122760414591714</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9752580310032938</v>
+        <v>0.9762764836125547</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>412</v>
@@ -1892,19 +1892,19 @@
         <v>257371</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>251362</v>
+        <v>251160</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>261450</v>
+        <v>261409</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9587039376222982</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9363221415483292</v>
+        <v>0.9355703577614357</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9738986749218588</v>
+        <v>0.9737459036434098</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>637</v>
@@ -1913,19 +1913,19 @@
         <v>477185</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>466868</v>
+        <v>466919</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>484731</v>
+        <v>484497</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9552018904419273</v>
+        <v>0.9552018904419272</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9345481237096611</v>
+        <v>0.9346504015028271</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9703063954753306</v>
+        <v>0.9698385685878674</v>
       </c>
     </row>
     <row r="23">
@@ -1945,16 +1945,16 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5725</v>
+        <v>6563</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.004866362407934584</v>
+        <v>0.004866362407934585</v>
       </c>
       <c r="H23" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02477213799738043</v>
+        <v>0.0283998008759689</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -1963,19 +1963,19 @@
         <v>2665</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>745</v>
+        <v>710</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6548</v>
+        <v>6783</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.009925869390401172</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.002775880149559065</v>
+        <v>0.002643960018889971</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02439293020349847</v>
+        <v>0.02526536152144532</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5</v>
@@ -1984,19 +1984,19 @@
         <v>3789</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>9314</v>
+        <v>8271</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.007585247743017839</v>
+        <v>0.007585247743017838</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.002898466681583445</v>
+        <v>0.002896950564733909</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01864495940973698</v>
+        <v>0.01655681199039098</v>
       </c>
     </row>
     <row r="24">
@@ -2013,19 +2013,19 @@
         <v>6436</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2615</v>
+        <v>2508</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13482</v>
+        <v>14619</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02784854019722341</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01131372624539151</v>
+        <v>0.01085352454841579</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05833798361688055</v>
+        <v>0.06325558352371109</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>13</v>
@@ -2034,19 +2034,19 @@
         <v>8422</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4543</v>
+        <v>4778</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>13612</v>
+        <v>14275</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03137019298730071</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01692352351589547</v>
+        <v>0.01779974908902263</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05070627767585806</v>
+        <v>0.05317501912300034</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>19</v>
@@ -2055,19 +2055,19 @@
         <v>14858</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>9038</v>
+        <v>9242</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>22743</v>
+        <v>23214</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02974101117500398</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01809215695282255</v>
+        <v>0.01850033703349453</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04552518944067029</v>
+        <v>0.04646918401510128</v>
       </c>
     </row>
     <row r="25">
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5906</v>
+        <v>6434</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.006304365832418992</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02555426307322338</v>
+        <v>0.02784156823472606</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -2121,16 +2121,16 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>7149</v>
+        <v>7128</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.002916516409903223</v>
+        <v>0.002916516409903222</v>
       </c>
       <c r="V25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01431043284180141</v>
+        <v>0.01426872449789857</v>
       </c>
     </row>
     <row r="26">
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6913</v>
+        <v>6814</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.009846847896441109</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02991174843411584</v>
+        <v>0.0294853369211408</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -2184,16 +2184,16 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6875</v>
+        <v>7937</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.004555334230147651</v>
+        <v>0.00455533423014765</v>
       </c>
       <c r="V26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01376223475677916</v>
+        <v>0.01588778499752234</v>
       </c>
     </row>
     <row r="27">
@@ -2595,19 +2595,19 @@
         <v>667199</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>651482</v>
+        <v>651464</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>677007</v>
+        <v>677039</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.9589573099965937</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9363672898306971</v>
+        <v>0.9363412448171015</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9730537027928151</v>
+        <v>0.9731001850846482</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>971</v>
@@ -2616,19 +2616,19 @@
         <v>741827</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>730543</v>
+        <v>730680</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>749955</v>
+        <v>751072</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.9589332215429412</v>
+        <v>0.9589332215429414</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9443469703428035</v>
+        <v>0.9445237899396953</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9694399367520797</v>
+        <v>0.970884660516398</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1535</v>
@@ -2637,19 +2637,19 @@
         <v>1409027</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1391219</v>
+        <v>1391048</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1423038</v>
+        <v>1424276</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.9589446277088652</v>
+        <v>0.958944627708865</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9468250543767649</v>
+        <v>0.9467083006610995</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9684799331437639</v>
+        <v>0.9693223845951091</v>
       </c>
     </row>
     <row r="35">
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>8110</v>
+        <v>6904</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.003246273349717245</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.01165652556014512</v>
+        <v>0.009923701755738342</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>5</v>
@@ -2687,19 +2687,19 @@
         <v>3393</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1060</v>
+        <v>1097</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>7616</v>
+        <v>7902</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.004385388325771142</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.001370230698101801</v>
+        <v>0.001418185383477256</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.00984550408343657</v>
+        <v>0.01021453847828217</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>7</v>
@@ -2708,19 +2708,19 @@
         <v>5651</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2522</v>
+        <v>2156</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>11485</v>
+        <v>11753</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.003846003996228223</v>
+        <v>0.003846003996228222</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.001716682973913673</v>
+        <v>0.001467102005061008</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.007816579956258979</v>
+        <v>0.007999003205178698</v>
       </c>
     </row>
     <row r="36">
@@ -2737,19 +2737,19 @@
         <v>12127</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5698</v>
+        <v>6321</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>20245</v>
+        <v>21557</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01742969798511778</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.008189470839848223</v>
+        <v>0.009084396494846535</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02909730926135344</v>
+        <v>0.03098350434871404</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>23</v>
@@ -2758,19 +2758,19 @@
         <v>16497</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>10739</v>
+        <v>11039</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>24670</v>
+        <v>24640</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02132460985974546</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01388241606838983</v>
+        <v>0.01426978081060599</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03188965385797604</v>
+        <v>0.03185167340531251</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>34</v>
@@ -2779,19 +2779,19 @@
         <v>28623</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>19630</v>
+        <v>19785</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>39643</v>
+        <v>39607</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.01948032330896852</v>
+        <v>0.01948032330896851</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01335965678236628</v>
+        <v>0.01346485208736651</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02697973820035046</v>
+        <v>0.02695569910114646</v>
       </c>
     </row>
     <row r="37">
@@ -2811,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>10128</v>
+        <v>9287</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.00390835017857249</v>
@@ -2820,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.01455642816074509</v>
+        <v>0.01334845636686174</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>5898</v>
+        <v>6784</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.002269826087684969</v>
@@ -2841,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.007624186389670507</v>
+        <v>0.008769705644575248</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>4</v>
@@ -2850,19 +2850,19 @@
         <v>4475</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1326</v>
+        <v>1453</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>11966</v>
+        <v>11978</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.00304568650281612</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0009023875201735111</v>
+        <v>0.0009889951570535259</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.008143736453578172</v>
+        <v>0.008151690429962714</v>
       </c>
     </row>
     <row r="38">
@@ -2879,19 +2879,19 @@
         <v>11451</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>5400</v>
+        <v>4696</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>26204</v>
+        <v>24296</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.0164583684899988</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.007761735871135336</v>
+        <v>0.006749286117148874</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03766265408551926</v>
+        <v>0.03492099246508702</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>12</v>
@@ -2900,19 +2900,19 @@
         <v>10124</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>5561</v>
+        <v>5746</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>17165</v>
+        <v>17647</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.01308695418385704</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.007188694942393675</v>
+        <v>0.007427807473873537</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.02218812328499666</v>
+        <v>0.02281109496408146</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>20</v>
@@ -2921,19 +2921,19 @@
         <v>21575</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>13610</v>
+        <v>12966</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>37181</v>
+        <v>36803</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.01468335848312212</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.009262833688105715</v>
+        <v>0.0088241477845106</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.02530418962882743</v>
+        <v>0.02504720173985761</v>
       </c>
     </row>
     <row r="39">
